--- a/time.xlsx
+++ b/time.xlsx
@@ -44,7 +44,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -73,6 +73,21 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,8 +132,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -151,7 +170,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -182,10 +201,10 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF004586"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -198,6 +217,555 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Runtime of Sorting Algorithms vs Input Size</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heap Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>320000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>640000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>960000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1280000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2560000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.0304</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1612</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2842</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5962</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7768</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.6572</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.3358</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.0802</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25.8448</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>57.781</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Radix Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>320000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>640000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>960000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1280000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2560000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.0374</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0552</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1962</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3562</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7554</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.632</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1348</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.9504</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.1266</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.3884</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25.976</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>54.354</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1634281"/>
+        <c:axId val="22223314"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1634281"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>N</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="22223314"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="22223314"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Time (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1634281"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>188640</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>264240</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>68040</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2396520" y="569520"/>
+        <a:ext cx="9642960" cy="5998320"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -205,716 +773,715 @@
   </sheetPr>
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.2734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <f aca="false">AVERAGE(C15:G15)</f>
         <v>0.0304</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <f aca="false">AVERAGE(C29:G29)</f>
         <v>0.0374</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <f aca="false">AVERAGE(C16:G16)</f>
         <v>0.0398</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <f aca="false">AVERAGE(C30:G30)</f>
         <v>0.105</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <f aca="false">AVERAGE(C17:G17)</f>
         <v>0.05</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <f aca="false">AVERAGE(C31:G31)</f>
         <v>0.0552</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <f aca="false">AVERAGE(C18:G18)</f>
         <v>0.1612</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <f aca="false">AVERAGE(C32:G32)</f>
         <v>0.1962</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <f aca="false">AVERAGE(C19:G19)</f>
         <v>0.2842</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <f aca="false">AVERAGE(C33:G33)</f>
         <v>0.3562</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>40000</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <f aca="false">AVERAGE(C20:G20)</f>
         <v>0.5962</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <f aca="false">AVERAGE(C34:G34)</f>
         <v>0.7554</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>80000</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <f aca="false">AVERAGE(C21:G21)</f>
         <v>1.2304</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <f aca="false">AVERAGE(C35:G35)</f>
         <v>1.632</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>160000</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <f aca="false">AVERAGE(C22:G22)</f>
         <v>2.7768</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <f aca="false">AVERAGE(C36:G36)</f>
         <v>3.1348</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>320000</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <f aca="false">AVERAGE(C23:G23)</f>
         <v>5.6572</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <f aca="false">AVERAGE(C37:G37)</f>
         <v>5.9504</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>640000</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <f aca="false">AVERAGE(C24:G24)</f>
         <v>12.3358</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <f aca="false">AVERAGE(C38:G38)</f>
         <v>12.1266</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>960000</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <f aca="false">AVERAGE(C25:G25)</f>
         <v>19.0802</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <f aca="false">AVERAGE(C39:G39)</f>
         <v>19.3884</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>1280000</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <f aca="false">AVERAGE(C26:G26)</f>
         <v>25.8448</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <f aca="false">AVERAGE(C40:G40)</f>
         <v>25.976</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>2560000</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="1" t="n">
         <f aca="false">AVERAGE(C27:G27)</f>
         <v>57.781</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="1" t="n">
         <f aca="false">AVERAGE(C41:G41)</f>
         <v>54.354</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="1" t="n">
         <v>0.031</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="1" t="n">
         <v>0.017</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="1" t="n">
         <v>0.038</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15" s="1" t="n">
         <v>0.018</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15" s="1" t="n">
         <v>0.048</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <v>0.038</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="1" t="n">
         <v>0.026</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="1" t="n">
         <v>0.044</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16" s="1" t="n">
         <v>0.036</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16" s="1" t="n">
         <v>0.055</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="1" t="n">
         <v>0.062</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="1" t="n">
         <v>0.053</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17" s="1" t="n">
         <v>0.037</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17" s="1" t="n">
         <v>0.048</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="1" t="n">
         <v>0.145</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="1" t="n">
         <v>0.167</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18" s="1" t="n">
         <v>0.16</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18" s="1" t="n">
         <v>0.171</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G18" s="1" t="n">
         <v>0.163</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="1" t="n">
         <v>0.269</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="1" t="n">
         <v>0.273</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19" s="1" t="n">
         <v>0.294</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="G19" s="1" t="n">
         <v>0.285</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="1" t="n">
         <v>40000</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="1" t="n">
         <v>0.57</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="1" t="n">
         <v>0.621</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20" s="1" t="n">
         <v>0.626</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20" s="1" t="n">
         <v>0.604</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="G20" s="1" t="n">
         <v>0.56</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="1" t="n">
         <v>80000</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="1" t="n">
         <v>1.468</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="1" t="n">
         <v>1.169</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21" s="1" t="n">
         <v>1.189</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21" s="1" t="n">
         <v>1.147</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="G21" s="1" t="n">
         <v>1.179</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="1" t="n">
         <v>160000</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="1" t="n">
         <v>2.809</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22" s="1" t="n">
         <v>2.808</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22" s="1" t="n">
         <v>2.756</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22" s="1" t="n">
         <v>2.783</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="G22" s="1" t="n">
         <v>2.728</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="1" t="n">
         <v>320000</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="1" t="n">
         <v>5.524</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="1" t="n">
         <v>5.49</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23" s="1" t="n">
         <v>5.517</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F23" s="1" t="n">
         <v>6.164</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="G23" s="1" t="n">
         <v>5.591</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="n">
+      <c r="B24" s="1" t="n">
         <v>640000</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="1" t="n">
         <v>11.963</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24" s="1" t="n">
         <v>12.544</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24" s="1" t="n">
         <v>11.347</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F24" s="1" t="n">
         <v>12.903</v>
       </c>
-      <c r="G24" s="0" t="n">
+      <c r="G24" s="1" t="n">
         <v>12.922</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="1" t="n">
         <v>960000</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25" s="1" t="n">
         <v>18.788</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25" s="1" t="n">
         <v>18.635</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25" s="1" t="n">
         <v>19.45</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F25" s="1" t="n">
         <v>19.505</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="G25" s="1" t="n">
         <v>19.023</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="n">
+      <c r="B26" s="1" t="n">
         <v>1280000</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26" s="1" t="n">
         <v>24.201</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26" s="1" t="n">
         <v>26.119</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26" s="1" t="n">
         <v>24.528</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26" s="1" t="n">
         <v>26.835</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="G26" s="1" t="n">
         <v>27.541</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="1" t="n">
         <v>2560000</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27" s="1" t="n">
         <v>58.387</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27" s="1" t="n">
         <v>58.305</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27" s="1" t="n">
         <v>57.671</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27" s="1" t="n">
         <v>56.556</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="G27" s="1" t="n">
         <v>57.986</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C29" s="1" t="n">
+      <c r="C29" s="2" t="n">
         <v>0.028</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29" s="1" t="n">
         <v>0.039</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29" s="1" t="n">
         <v>0.044</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29" s="1" t="n">
         <v>0.034</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="G29" s="1" t="n">
         <v>0.042</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="n">
+      <c r="B30" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30" s="1" t="n">
         <v>0.025</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30" s="1" t="n">
         <v>0.035</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F30" s="1" t="n">
         <v>0.034</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="G30" s="1" t="n">
         <v>0.031</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31" s="1" t="n">
         <v>0.057</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31" s="1" t="n">
         <v>0.065</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31" s="1" t="n">
         <v>0.053</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F31" s="1" t="n">
         <v>0.057</v>
       </c>
-      <c r="G31" s="0" t="n">
+      <c r="G31" s="1" t="n">
         <v>0.044</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="n">
+      <c r="B32" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32" s="1" t="n">
         <v>0.188</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32" s="1" t="n">
         <v>0.191</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="F32" s="0" t="n">
+      <c r="F32" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="G32" s="0" t="n">
+      <c r="G32" s="1" t="n">
         <v>0.202</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="n">
+      <c r="B33" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33" s="1" t="n">
         <v>0.362</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33" s="1" t="n">
         <v>0.355</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33" s="1" t="n">
         <v>0.353</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="F33" s="1" t="n">
         <v>0.354</v>
       </c>
-      <c r="G33" s="0" t="n">
+      <c r="G33" s="1" t="n">
         <v>0.357</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0" t="n">
+      <c r="B34" s="1" t="n">
         <v>40000</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34" s="1" t="n">
         <v>0.82</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D34" s="1" t="n">
         <v>0.79</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34" s="1" t="n">
         <v>0.816</v>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="F34" s="1" t="n">
         <v>0.68</v>
       </c>
-      <c r="G34" s="0" t="n">
+      <c r="G34" s="1" t="n">
         <v>0.671</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="n">
+      <c r="B35" s="1" t="n">
         <v>80000</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35" s="1" t="n">
         <v>1.618</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35" s="1" t="n">
         <v>1.637</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35" s="1" t="n">
         <v>1.59</v>
       </c>
-      <c r="F35" s="0" t="n">
+      <c r="F35" s="1" t="n">
         <v>1.664</v>
       </c>
-      <c r="G35" s="0" t="n">
+      <c r="G35" s="1" t="n">
         <v>1.651</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0" t="n">
+      <c r="B36" s="1" t="n">
         <v>160000</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36" s="1" t="n">
         <v>3.037</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D36" s="1" t="n">
         <v>3.077</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36" s="1" t="n">
         <v>3.063</v>
       </c>
-      <c r="F36" s="0" t="n">
+      <c r="F36" s="1" t="n">
         <v>3.07</v>
       </c>
-      <c r="G36" s="0" t="n">
+      <c r="G36" s="1" t="n">
         <v>3.427</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0" t="n">
+      <c r="B37" s="1" t="n">
         <v>320000</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37" s="1" t="n">
         <v>6.189</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37" s="1" t="n">
         <v>5.697</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E37" s="1" t="n">
         <v>6.01</v>
       </c>
-      <c r="F37" s="0" t="n">
+      <c r="F37" s="1" t="n">
         <v>5.934</v>
       </c>
-      <c r="G37" s="0" t="n">
+      <c r="G37" s="1" t="n">
         <v>5.922</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="0" t="n">
+      <c r="B38" s="1" t="n">
         <v>640000</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38" s="1" t="n">
         <v>11.717</v>
       </c>
-      <c r="D38" s="0" t="n">
+      <c r="D38" s="1" t="n">
         <v>11.809</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="E38" s="1" t="n">
         <v>12.537</v>
       </c>
-      <c r="F38" s="0" t="n">
+      <c r="F38" s="1" t="n">
         <v>12.032</v>
       </c>
-      <c r="G38" s="0" t="n">
+      <c r="G38" s="1" t="n">
         <v>12.538</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="n">
+      <c r="B39" s="1" t="n">
         <v>960000</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39" s="1" t="n">
         <v>18.523</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="D39" s="1" t="n">
         <v>20.312</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E39" s="1" t="n">
         <v>19.102</v>
       </c>
-      <c r="F39" s="0" t="n">
+      <c r="F39" s="1" t="n">
         <v>19.763</v>
       </c>
-      <c r="G39" s="0" t="n">
+      <c r="G39" s="1" t="n">
         <v>19.242</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0" t="n">
+      <c r="B40" s="1" t="n">
         <v>1280000</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40" s="1" t="n">
         <v>23.813</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="D40" s="1" t="n">
         <v>25.585</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="E40" s="1" t="n">
         <v>27.214</v>
       </c>
-      <c r="F40" s="0" t="n">
+      <c r="F40" s="1" t="n">
         <v>26.413</v>
       </c>
-      <c r="G40" s="0" t="n">
+      <c r="G40" s="1" t="n">
         <v>26.855</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0" t="n">
+      <c r="B41" s="1" t="n">
         <v>2560000</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41" s="1" t="n">
         <v>52.565</v>
       </c>
-      <c r="D41" s="0" t="n">
+      <c r="D41" s="1" t="n">
         <v>58.193</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="E41" s="1" t="n">
         <v>55.109</v>
       </c>
-      <c r="F41" s="0" t="n">
+      <c r="F41" s="1" t="n">
         <v>54.197</v>
       </c>
-      <c r="G41" s="0" t="n">
+      <c r="G41" s="1" t="n">
         <v>51.706</v>
       </c>
     </row>
@@ -926,5 +1493,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>